--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -29,6 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +375,1326 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2.787360972433817E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>-7.853041461203247E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>-0.0001873064902611077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.01572232320904732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.04231303185224533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.0732608363032341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.09300006926059723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.1136635020375252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.1049968302249908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.08190709352493286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.02245323359966278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>2.787360972433817E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>-2.75134061666904E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>-9.820571722229943E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.03635773062705994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.124638132750988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.205090656876564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0.2335516214370728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0.2322713285684586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>0.1857516169548035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.1066165715456009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0.03757848590612411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2.787360972433817E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>-7.853041461203247E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>-0.0002250567486044019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.0123863173648715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.04010367393493652</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.06600551307201385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0.07897700369358063</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>0.08408992737531662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>0.07553403079509735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>0.05693170055747032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>0.01093415822833776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2.787360972433817E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>-7.853041461203247E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>-0.0002250567486044019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.008851449936628342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.0241890475153923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.03987998142838478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0.04483787342905998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>0.04678593575954437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.05858835950493813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0.0495639480650425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>0.01268336549401283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>2.616321216919459E-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>2.787360972433817E-05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>-2.75134061666904E-05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>-0.0001740397565299645</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>0.02708396874368191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>0.06701128929853439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0.1248008757829666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>0.1691737323999405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>0.1716677844524384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>0.1400452256202698</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>0.085037000477314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0.02631261385977268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>1.043359407049138E-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1322 +377,3709 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2.616321216919459E-05</v>
+        <v>0.02259280160069466</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2.616321216919459E-05</v>
+        <v>0.007403561845421791</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2.616321216919459E-05</v>
+        <v>-9.021360892802477E-05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>2.787360972433817E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>-7.853041461203247E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>-0.0001873064902611077</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01572232320904732</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.04231303185224533</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.0732608363032341</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.09300006926059723</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.1136635020375252</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.1049968302249908</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.08190709352493286</v>
+        <v>0.009647762402892113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.02245323359966278</v>
+        <v>0.03621787950396538</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>1.043359407049138E-05</v>
+        <v>0.05592770501971245</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>1.043359407049138E-05</v>
+        <v>0.07027488201856613</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>1.043359407049138E-05</v>
+        <v>0.08373571187257767</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>1.043359407049138E-05</v>
+        <v>0.08566363155841827</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1.043359407049138E-05</v>
+        <v>0.07417407631874084</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>1.043359407049138E-05</v>
+        <v>0.06925670057535172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>1.043359407049138E-05</v>
+        <v>0.06489045917987823</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>2.616321216919459E-05</v>
+        <v>0.04507505521178246</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>2.616321216919459E-05</v>
+        <v>0.01461487077176571</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>2.616321216919459E-05</v>
+        <v>-9.320949902758002E-05</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>2.616321216919459E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>2.616321216919459E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>2.616321216919459E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>2.787360972433817E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>-2.75134061666904E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>-9.820571722229943E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.03635773062705994</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.124638132750988</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0.205090656876564</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0.2335516214370728</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0.2322713285684586</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0.1857516169548035</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.1066165715456009</v>
+        <v>0.01194414123892784</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.03757848590612411</v>
+        <v>0.04429180547595024</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>1.043359407049138E-05</v>
+        <v>0.06889883428812027</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>1.043359407049138E-05</v>
+        <v>0.1081023216247559</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>1.043359407049138E-05</v>
+        <v>0.1345461457967758</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>1.043359407049138E-05</v>
+        <v>0.1478200554847717</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>1.043359407049138E-05</v>
+        <v>0.1371823102235794</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>1.043359407049138E-05</v>
+        <v>0.1104389950633049</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>1.043359407049138E-05</v>
+        <v>0.09874901920557022</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>2.616321216919459E-05</v>
+        <v>0.06789380311965942</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>2.616321216919459E-05</v>
+        <v>0.02499356679618359</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>2.616321216919459E-05</v>
+        <v>0.0001429578987881541</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>2.616321216919459E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>2.787360972433817E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>-7.853041461203247E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>-0.0002250567486044019</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.0123863173648715</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.04010367393493652</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.06600551307201385</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.07897700369358063</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.08408992737531662</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.07553403079509735</v>
+        <v>0.000155032190377824</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.05693170055747032</v>
+        <v>0.02325016818940639</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.01093415822833776</v>
+        <v>0.07378382235765457</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>1.043359407049138E-05</v>
+        <v>0.1172067150473595</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>1.043359407049138E-05</v>
+        <v>0.164742037653923</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>1.043359407049138E-05</v>
+        <v>0.262628436088562</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>1.043359407049138E-05</v>
+        <v>0.252614289522171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>1.043359407049138E-05</v>
+        <v>0.2283054292201996</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>1.043359407049138E-05</v>
+        <v>0.2107362300157547</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>1.043359407049138E-05</v>
+        <v>0.1422073841094971</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>2.616321216919459E-05</v>
+        <v>0.08310401439666748</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>2.616321216919459E-05</v>
+        <v>0.02664913050830364</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>2.616321216919459E-05</v>
+        <v>0.0005776004400104284</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>2.787360972433817E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>-7.853041461203247E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>-0.0002250567486044019</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.008851449936628342</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.0241890475153923</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.03987998142838478</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.04483787342905998</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.04678593575954437</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.05858835950493813</v>
+        <v>4.719912249129266E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.0495639480650425</v>
+        <v>0.01455261465162039</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.01268336549401283</v>
+        <v>0.05127535760402679</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>1.043359407049138E-05</v>
+        <v>0.07442576438188553</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>1.043359407049138E-05</v>
+        <v>0.08909439295530319</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>1.043359407049138E-05</v>
+        <v>0.100391797721386</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>1.043359407049138E-05</v>
+        <v>0.09715639054775238</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>1.043359407049138E-05</v>
+        <v>0.09263883531093597</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>1.043359407049138E-05</v>
+        <v>0.08341304212808609</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>1.043359407049138E-05</v>
+        <v>0.06747953593730927</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>2.616321216919459E-05</v>
+        <v>0.0490463487803936</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>2.616321216919459E-05</v>
+        <v>0.01917697675526142</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>2.616321216919459E-05</v>
+        <v>0.0001668855984462425</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>2.616321216919459E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>2.787360972433817E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>-2.75134061666904E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>-0.0001740397565299645</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.02708396874368191</v>
+        <v>0.0006546665099449456</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>0.06701128929853439</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.1248008757829666</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>0.1691737323999405</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.1716677844524384</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.1400452256202698</v>
+        <v>5.057793168816715E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.085037000477314</v>
+        <v>0.01197419594973326</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.02631261385977268</v>
+        <v>0.04189752042293549</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>1.043359407049138E-05</v>
+        <v>0.0630156621336937</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>1.043359407049138E-05</v>
+        <v>0.08692634850740433</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>1.043359407049138E-05</v>
+        <v>0.1024182140827179</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>1.043359407049138E-05</v>
+        <v>0.1086552813649178</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>1.043359407049138E-05</v>
+        <v>0.1041456982493401</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>1.043359407049138E-05</v>
+        <v>0.09410206228494644</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.07829631865024567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>0.05252662673592567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0.02089397795498371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>0.0003298961964901537</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B130">
         <v>23</v>
       </c>
-      <c r="C121">
-        <v>1.043359407049138E-05</v>
+      <c r="C130">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.0001580280804773793</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>0.01455261465162039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.04207667335867882</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>0.06586945056915283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>0.08627334982156754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>0.102261021733284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>0.1151770502328873</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.1231041178107262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.1168292760848999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.09031817317008972</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.05394983291625977</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0.02069268934428692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>0.0004729919601231813</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0.000161406904226169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>0.01425561774522066</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.04306612908840179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>0.07162733376026154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.08760327845811844</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0.09720237553119659</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.1007452756166458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.09263883531093597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>0.0798969566822052</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.06305976212024689</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.043117955327034</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>0.01858902163803577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>0.0004729919601231813</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B178">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.000161406904226169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>0.01499931327998638</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.04259413480758667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0.0695301741361618</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>0.108493760228157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>0.1246223524212837</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>0.134842649102211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>0.1347997337579727</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>0.1183229088783264</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0.1037695854902267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.06207085400819778</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.02216084487736225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>0.0007206961745396256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.0009155049920082092</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.01680062711238861</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.05235821008682251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>0.0755709707736969</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>0.09363432973623276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>0.1015299409627914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>0.1014974936842918</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>0.08767928183078766</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>0.07014285773038864</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>0.052179254591465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.03943311050534248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>0.0138502512127161</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.0002299672632943839</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0.0009155049920082092</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0.01499931327998638</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>0.0405830480158329</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>0.06785335391759872</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>0.1013013571500778</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.1255850940942764</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>0.1593292355537415</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>0.1691027134656906</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>0.1475740969181061</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>0.1149604171514511</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>0.06960844993591309</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B243">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.02349354512989521</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B244">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0.001190651557408273</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B248">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>0.0002826619893312454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0.0117441089823842</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0.03467497229576111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0.04740380123257637</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>0.07160100340843201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>0.08509480208158493</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>0.1081528663635254</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>0.1528698056936264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264">
+        <v>0.1503455191850662</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265">
+        <v>0.1296460330486298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.07219056040048599</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.02956528961658478</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0.001550637069158256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>4.915863246424124E-05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>-3.973032289650291E-05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>2.719818803598173E-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>0.0006546665099449456</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>0.0009934451663866639</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0.0160356517881155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0.04049728810787201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.0564536526799202</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.06909271329641342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>0.0760689303278923</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>0.06941724568605423</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>0.06172395870089531</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>0.04693551361560822</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>0.03788628429174423</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>0.02606946602463722</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.01146303303539753</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>0.0003298961964901537</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>3.556818410288543E-05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>1.164050809165929E-05</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>2.182362004532479E-05</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>1.844480357249267E-05</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0.000155032190377824</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0.009306374005973339</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0.02296888455748558</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.03080487251281738</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>0.0391978919506073</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>0.05042208731174469</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>0.07144170254468918</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>0.08911464363336563</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>0.09422288835048676</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>0.09016922861337662</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.07225485891103745</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.0283717717975378</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>0.001561070675961673</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>5.26579742654576E-06</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>5.26579742654576E-06</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>5.26579742654576E-06</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>3.146508333884412E-06</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>3.146508333884412E-06</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>-9.576679985912051E-06</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>6.064359467927716E-07</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>6.064359467927716E-07</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>6.064359467927716E-07</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>6.096731340221595E-06</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>6.096731340221595E-06</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>0.00251621357165277</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>0.0337514616549015</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.09413453191518784</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>0.1327620893716812</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>0.1545258760452271</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>0.1505214273929596</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B334">
+        <v>11</v>
+      </c>
+      <c r="C334">
+        <v>0.122750036418438</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>0.09166781604290009</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>0.07000768929719925</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>0.05154336988925934</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>0.03212493658065796</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,98 +377,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.02259280160069466</v>
+        <v>0.08428331464529037</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.007403561845421791</v>
+        <v>0.1162234544754028</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>-9.021360892802477E-05</v>
+        <v>0.1155890300869942</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>8.261689799837768E-06</v>
+        <v>0.06410706043243408</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>8.261689799837768E-06</v>
+        <v>0.05654294043779373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>8.261689799837768E-06</v>
+        <v>0.04382136464118958</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>8.261689799837768E-06</v>
+        <v>0.01232454273849726</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>8.261689799837768E-06</v>
+        <v>-9.021360892802477E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>8.261689799837768E-06</v>
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.844480357249267E-05</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.009647762402892113</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.03621787950396538</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.05592770501971245</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.07027488201856613</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.08373571187257767</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.08566363155841827</v>
+        <v>0.009052928537130356</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.07417407631874084</v>
+        <v>0.03469726070761681</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.06925670057535172</v>
+        <v>0.05297971144318581</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.06489045917987823</v>
+        <v>0.06390276551246643</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.04507505521178246</v>
+        <v>0.08400339633226395</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.01461487077176571</v>
+        <v>0.0923377200961113</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>-9.320949902758002E-05</v>
+        <v>0.08944797515869141</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>5.26579742654576E-06</v>
+        <v>0.08913939446210861</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>5.26579742654576E-06</v>
+        <v>0.0840592086315155</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>5.26579742654576E-06</v>
+        <v>0.06031817197799683</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>5.26579742654576E-06</v>
+        <v>0.02343275211751461</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>5.26579742654576E-06</v>
+        <v>4.302882734918967E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>5.26579742654576E-06</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>1.544891347293742E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>1.544891347293742E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>1.544891347293742E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>1.544891347293742E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>1.544891347293742E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1.544891347293742E-05</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.01194414123892784</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.04429180547595024</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.06889883428812027</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.1081023216247559</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.1345461457967758</v>
+        <v>0.000155032190377824</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.1478200554847717</v>
+        <v>0.0291094146668911</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.1371823102235794</v>
+        <v>0.08750561624765396</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.1104389950633049</v>
+        <v>0.1605449318885803</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.09874901920557022</v>
+        <v>0.2320898473262787</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.06789380311965942</v>
+        <v>0.2724696099758148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.02499356679618359</v>
+        <v>0.2589584290981293</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.0001429578987881541</v>
+        <v>0.221565380692482</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>8.261689799837768E-06</v>
+        <v>0.1743403822183609</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>8.261689799837768E-06</v>
+        <v>0.1364712715148926</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>8.261689799837768E-06</v>
+        <v>0.0741066038608551</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>8.261689799837768E-06</v>
+        <v>0.02395573630928993</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>8.261689799837768E-06</v>
+        <v>0.0003298961964901537</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>8.261689799837768E-06</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>1.544891347293742E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>1.544891347293742E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.000155032190377824</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.02325016818940639</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.07378382235765457</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.1172067150473595</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.164742037653923</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.262628436088562</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.252614289522171</v>
+        <v>0.008814736269414425</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.2283054292201996</v>
+        <v>0.03080616891384125</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.2107362300157547</v>
+        <v>0.04210037365555763</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.1422073841094971</v>
+        <v>0.05940200388431549</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.08310401439666748</v>
+        <v>0.07832609862089157</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.02664913050830364</v>
+        <v>0.08198470622301102</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.0005776004400104284</v>
+        <v>0.07279989123344421</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>3.556818410288543E-05</v>
+        <v>0.06921970099210739</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>3.556818410288543E-05</v>
+        <v>0.06778426468372345</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>3.556818410288543E-05</v>
+        <v>0.05114473029971123</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>1.164050809165929E-05</v>
+        <v>0.02142822556197643</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>1.164050809165929E-05</v>
+        <v>0.0003298961964901537</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>1.164050809165929E-05</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,219 +1315,219 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>4.719912249129266E-05</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.01455261465162039</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.05127535760402679</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.07442576438188553</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.08909439295530319</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.100391797721386</v>
+        <v>0.0001580280804773793</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.09715639054775238</v>
+        <v>0.02020379155874252</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.09263883531093597</v>
+        <v>0.06054825708270073</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.08341304212808609</v>
+        <v>0.1057092323899269</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.06747953593730927</v>
+        <v>0.147896409034729</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.0490463487803936</v>
+        <v>0.1481598168611526</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.01917697675526142</v>
+        <v>0.1479258835315704</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.0001668855984462425</v>
+        <v>0.1380027532577515</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>3.556818410288543E-05</v>
+        <v>0.1056115999817848</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>3.556818410288543E-05</v>
+        <v>0.08253265172243118</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>3.556818410288543E-05</v>
+        <v>0.05445640161633492</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>3.556818410288543E-05</v>
+        <v>0.02123438008129597</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>3.556818410288543E-05</v>
+        <v>0.0003841029829345644</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>3.556818410288543E-05</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.0006546665099449456</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>2.182362004532479E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>2.182362004532479E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>2.182362004532479E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>5.057793168816715E-05</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.01197419594973326</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.04189752042293549</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.0630156621336937</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.08692634850740433</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.1024182140827179</v>
+        <v>0.0001580280804773793</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.1086552813649178</v>
+        <v>0.01605693250894547</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.1041456982493401</v>
+        <v>0.04100438579916954</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.09410206228494644</v>
+        <v>0.04932840168476105</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.07829631865024567</v>
+        <v>0.06311332434415817</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.05252662673592567</v>
+        <v>0.07166226208209991</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.02089397795498371</v>
+        <v>0.07114185392856598</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.0003298961964901537</v>
+        <v>0.06358116865158081</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>2.719818803598173E-05</v>
+        <v>0.05423916876316071</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>3.556818410288543E-05</v>
+        <v>0.046483114361763</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>3.556818410288543E-05</v>
+        <v>0.03200808167457581</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>3.556818410288543E-05</v>
+        <v>0.01186670735478401</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>1.164050809165929E-05</v>
+        <v>3.525645297486335E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>1.164050809165929E-05</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,219 +1843,219 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>1.844480357249267E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0001580280804773793</v>
+        <v>0.0006546665099449456</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.01455261465162039</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.04207667335867882</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.06586945056915283</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.08627334982156754</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.102261021733284</v>
+        <v>0.0002826619893312454</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.1151770502328873</v>
+        <v>0.02176459692418575</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.1231041178107262</v>
+        <v>0.05989587679505348</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.1168292760848999</v>
+        <v>0.1102168634533882</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.09031817317008972</v>
+        <v>0.1535119265317917</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.05394983291625977</v>
+        <v>0.1855079382658005</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.02069268934428692</v>
+        <v>0.2070764452219009</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.0004729919601231813</v>
+        <v>0.1707736849784851</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>-3.973032289650291E-05</v>
+        <v>0.1443693041801453</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>-3.973032289650291E-05</v>
+        <v>0.1084314286708832</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>2.719818803598173E-05</v>
+        <v>0.07320934534072876</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>2.719818803598173E-05</v>
+        <v>0.02650998346507549</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>3.556818410288543E-05</v>
+        <v>0.0003906619385816157</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>3.556818410288543E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>1.844480357249267E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.000161406904226169</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.01425561774522066</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.04306612908840179</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.07162733376026154</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.08760327845811844</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.09720237553119659</v>
+        <v>0.0004198193782940507</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.1007452756166458</v>
+        <v>0.02258742228150368</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.09263883531093597</v>
+        <v>0.06934463232755661</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.0798969566822052</v>
+        <v>0.1291659474372864</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.06305976212024689</v>
+        <v>0.2064931988716125</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.043117955327034</v>
+        <v>0.2322342991828918</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.01858902163803577</v>
+        <v>0.23824542760849</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.0004729919601231813</v>
+        <v>0.2275587618350983</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>4.915863246424124E-05</v>
+        <v>0.1878927499055862</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>4.915863246424124E-05</v>
+        <v>0.1366734802722931</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>-3.973032289650291E-05</v>
+        <v>0.07321815192699432</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>2.719818803598173E-05</v>
+        <v>0.02377045527100563</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>2.719818803598173E-05</v>
+        <v>0.0007931852014735341</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>3.556818410288543E-05</v>
+        <v>-3.973032289650291E-05</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>0.0006546665099449456</v>
+        <v>-3.973032289650291E-05</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>2.182362004532479E-05</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>2.182362004532479E-05</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,216 +2371,216 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.000161406904226169</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.01499931327998638</v>
+        <v>2.182362004532479E-05</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.04259413480758667</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>0.0695301741361618</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>0.108493760228157</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>0.1246223524212837</v>
+        <v>0.0003572233254089952</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.134842649102211</v>
+        <v>0.01927240006625652</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>0.1347997337579727</v>
+        <v>0.06092116981744766</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>0.1183229088783264</v>
+        <v>0.1068767383694649</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.1037695854902267</v>
+        <v>0.1417428404092789</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.06207085400819778</v>
+        <v>0.1502621471881866</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.02216084487736225</v>
+        <v>0.1481005847454071</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.0007206961745396256</v>
+        <v>0.1348976641893387</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>4.915863246424124E-05</v>
+        <v>0.120716504752636</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>-3.973032289650291E-05</v>
+        <v>0.09620598703622818</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>2.719818803598173E-05</v>
+        <v>0.0581304207444191</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>2.719818803598173E-05</v>
+        <v>0.02069268934428692</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>2.719818803598173E-05</v>
+        <v>0.0007206961745396256</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
         <v>2.719818803598173E-05</v>
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>0.0006546665099449456</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>0.0006546665099449456</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>0.0006546665099449456</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>0.0006546665099449456</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>0.0006546665099449456</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.0009155049920082092</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.01680062711238861</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.05235821008682251</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>0.0755709707736969</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.09363432973623276</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>0.1015299409627914</v>
+        <v>0.0003572233254089952</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.1014974936842918</v>
+        <v>0.02206159196794033</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.08767928183078766</v>
+        <v>0.05993606150150299</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.07014285773038864</v>
+        <v>0.09982556104660034</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.052179254591465</v>
+        <v>0.14154152572155</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.03943311050534248</v>
+        <v>0.2030088752508163</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.0138502512127161</v>
+        <v>0.2039472907781601</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.0002299672632943839</v>
+        <v>0.204412505030632</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>3.556818410288543E-05</v>
+        <v>0.1877427846193314</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>3.556818410288543E-05</v>
+        <v>0.1352198272943497</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>3.556818410288543E-05</v>
+        <v>0.0686248391866684</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>3.556818410288543E-05</v>
+        <v>0.02237885631620884</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>3.556818410288543E-05</v>
+        <v>0.0007931852014735341</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>3.556818410288543E-05</v>
+        <v>-3.973032289650291E-05</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>0.0006546665099449456</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>0.0006546665099449456</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>0.0006546665099449456</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>2.182362004532479E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,216 +2899,216 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>0.0006546665099449456</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.0009155049920082092</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.01499931327998638</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.0405830480158329</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.06785335391759872</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.1013013571500778</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.1255850940942764</v>
+        <v>0.002804867457598448</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.1593292355537415</v>
+        <v>0.04780943319201469</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>0.1691027134656906</v>
+        <v>0.1223306804895401</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>0.1475740969181061</v>
+        <v>0.2182156890630722</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>0.1149604171514511</v>
+        <v>0.2921233177185059</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.06960844993591309</v>
+        <v>0.280155748128891</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.02349354512989521</v>
+        <v>0.2552937865257263</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.001190651557408273</v>
+        <v>0.2221621870994568</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>4.915863246424124E-05</v>
+        <v>0.1571003049612045</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>-3.973032289650291E-05</v>
+        <v>0.1364712715148926</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>-3.973032289650291E-05</v>
+        <v>0.07534155994653702</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>2.719818803598173E-05</v>
+        <v>0.02970028482377529</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>2.719818803598173E-05</v>
+        <v>0.001407541451044381</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
         <v>3.556818410288543E-05</v>
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>0.0006546665099449456</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>2.182362004532479E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>2.182362004532479E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>2.182362004532479E-05</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.0002826619893312454</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.0117441089823842</v>
+        <v>1.332962438027607E-05</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.03467497229576111</v>
+        <v>1.332962438027607E-05</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.04740380123257637</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>0.07160100340843201</v>
+        <v>1.332962438027607E-05</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>0.08509480208158493</v>
+        <v>0.003650899510830641</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>0.1081528663635254</v>
+        <v>0.05061159282922745</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>0.1528698056936264</v>
+        <v>0.1383786350488663</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>0.1503455191850662</v>
+        <v>0.2274838387966156</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>0.1296460330486298</v>
+        <v>0.2986039221286774</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.07219056040048599</v>
+        <v>0.2993156313896179</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.02956528961658478</v>
+        <v>0.2997467517852783</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.001550637069158256</v>
+        <v>0.2979680001735687</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>4.915863246424124E-05</v>
+        <v>0.2957746386528015</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>4.915863246424124E-05</v>
+        <v>0.2425547093153</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>-3.973032289650291E-05</v>
+        <v>0.1419835537672043</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>2.719818803598173E-05</v>
+        <v>0.04585178196430206</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>2.719818803598173E-05</v>
+        <v>0.003472049254924059</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>2.719818803598173E-05</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>0.0006546665099449456</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>0.0006546665099449456</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>0.0006546665099449456</v>
+        <v>5.26579742654576E-06</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>0.0006546665099449456</v>
+        <v>3.146508333884412E-06</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>0.0006546665099449456</v>
+        <v>3.146508333884412E-06</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.0009934451663866639</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.0160356517881155</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.04049728810787201</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.0564536526799202</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.06909271329641342</v>
+        <v>6.064359467927716E-07</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.0760689303278923</v>
+        <v>0.003149248426780105</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.06941724568605423</v>
+        <v>0.04634121805429459</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.06172395870089531</v>
+        <v>0.1452198922634125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.04693551361560822</v>
+        <v>0.2231463938951492</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.03788628429174423</v>
+        <v>0.2889813780784607</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.02606946602463722</v>
+        <v>0.2961815595626831</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.01146303303539753</v>
+        <v>0.2971122562885284</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.0003298961964901537</v>
+        <v>0.2942895889282227</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>3.556818410288543E-05</v>
+        <v>0.2671214044094086</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>3.556818410288543E-05</v>
+        <v>0.2309503853321075</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>1.164050809165929E-05</v>
+        <v>0.1250962764024734</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>1.164050809165929E-05</v>
+        <v>0.04121289402246475</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>1.164050809165929E-05</v>
+        <v>0.002836102852597833</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>1.164050809165929E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>2.182362004532479E-05</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>1.844480357249267E-05</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.000155032190377824</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.009306374005973339</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.02296888455748558</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.03080487251281738</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.0391978919506073</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.05042208731174469</v>
+        <v>0.002568456809967756</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.07144170254468918</v>
+        <v>0.03415808081626892</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.08911464363336563</v>
+        <v>0.09304679185152054</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.09422288835048676</v>
+        <v>0.1723897308111191</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.09016922861337662</v>
+        <v>0.2587165236473083</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.07225485891103745</v>
+        <v>0.2893547415733337</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.0283717717975378</v>
+        <v>0.2860306799411774</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.001561070675961673</v>
+        <v>0.2502792179584503</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>5.26579742654576E-06</v>
+        <v>0.2111478745937347</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>5.26579742654576E-06</v>
+        <v>0.1331396400928497</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>5.26579742654576E-06</v>
+        <v>0.0698975995182991</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>3.146508333884412E-06</v>
+        <v>0.02581924013793468</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>3.146508333884412E-06</v>
+        <v>0.001874659326858819</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>-9.576679985912051E-06</v>
+        <v>2.719818803598173E-05</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>6.064359467927716E-07</v>
+        <v>3.556818410288543E-05</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>6.064359467927716E-07</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>6.064359467927716E-07</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>6.096731340221595E-06</v>
+        <v>1.164050809165929E-05</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>6.096731340221595E-06</v>
+        <v>8.261689799837768E-06</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.00251621357165277</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.0337514616549015</v>
+        <v>1.844480357249267E-05</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.09413453191518784</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>0.1327620893716812</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>0.1545258760452271</v>
+        <v>1.544891347293742E-05</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>0.1505214273929596</v>
+        <v>0.005310188047587872</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>0.122750036418438</v>
+        <v>0.04756788164377213</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>0.09166781604290009</v>
+        <v>0.135965034365654</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>0.07000768929719925</v>
+        <v>0.2197842448949814</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.05154336988925934</v>
+        <v>0.2815112173557281</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.03212493658065796</v>
+        <v>0.295026957988739</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.04376458004117012</v>
+        <v>-0.0004365900531411171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.002417518757283688</v>
+        <v>-4.896917289443081E-06</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>8.261689799837768E-06</v>
+        <v>0.07471635192632675</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>8.261689799837768E-06</v>
+        <v>0.01973054744303226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>8.261689799837768E-06</v>
+        <v>0.0007658886606805027</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>8.261689799837768E-06</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>5.26579742654576E-06</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>5.26579742654576E-06</v>
+        <v>-1.900375423247169E-06</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.544891347293742E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.544891347293742E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.544891347293742E-05</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1.544891347293742E-05</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1.544891347293742E-05</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.0004168235172983259</v>
+        <v>1.302296550420579E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.02213970012962818</v>
+        <v>0.005849148612469435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.07378382235765457</v>
+        <v>0.05124837905168533</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1395059674978256</v>
+        <v>0.1249769553542137</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.2267367094755173</v>
+        <v>0.1989066302776337</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.2723330855369568</v>
+        <v>0.2678586840629578</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.260431706905365</v>
+        <v>0.2945945858955383</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.2583656311035156</v>
+        <v>0.2984739243984222</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>0.2336704134941101</v>
+        <v>0.2982148826122284</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.1877541542053223</v>
+        <v>0.2850905358791351</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.1218160912394524</v>
+        <v>0.2739298343658447</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.04467364028096199</v>
+        <v>0.1935720592737198</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.002667444292455912</v>
+        <v>0.097209632396698</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>1.164050809165929E-05</v>
+        <v>0.03845794126391411</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>8.261689799837768E-06</v>
+        <v>0.01938299275934696</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>8.261689799837768E-06</v>
+        <v>0.0007534518372267485</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>5.26579742654576E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>5.26579742654576E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.544891347293742E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1.544891347293742E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>1.544891347293742E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>1.544891347293742E-05</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>1.544891347293742E-05</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.002151275053620338</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.04459252208471298</v>
+        <v>0.003941352479159832</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.1132959797978401</v>
+        <v>0.03238337114453316</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0.2046264111995697</v>
+        <v>0.07299482077360153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0.2782368659973145</v>
+        <v>0.1121309399604797</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>0.2954813539981842</v>
+        <v>0.1640602201223373</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>0.2957488298416138</v>
+        <v>0.2047764658927917</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>0.2923738062381744</v>
+        <v>0.2462857812643051</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.2527882158756256</v>
+        <v>0.2508009672164917</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>0.2040699422359467</v>
+        <v>0.2270718663930893</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>0.1171573847532272</v>
+        <v>0.1810984313488007</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.04140494391322136</v>
+        <v>0.1261863112449646</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.002234265441074967</v>
+        <v>0.065366230905056</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>2.719818803598173E-05</v>
+        <v>0.02549462765455246</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>3.556818410288543E-05</v>
+        <v>0.01592969335615635</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>3.556818410288543E-05</v>
+        <v>0.0005057475646026433</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>1.164050809165929E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>1.164050809165929E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1.844480357249267E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>1.544891347293742E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>1.544891347293742E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.002151275053620338</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.04176304861903191</v>
+        <v>0.00236065685749054</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.1048320755362511</v>
+        <v>0.02251927554607391</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0.2033713608980179</v>
+        <v>0.05010321736335754</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.261974036693573</v>
+        <v>0.08110208809375763</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>0.2799074053764343</v>
+        <v>0.1113344505429268</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>0.2959380447864532</v>
+        <v>0.1515399962663651</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.2942677438259125</v>
+        <v>0.1917598396539688</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.2823096215724945</v>
+        <v>0.1973503679037094</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>0.2170912772417068</v>
+        <v>0.1870713233947754</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>0.1269392967224121</v>
+        <v>0.1629779785871506</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.04689551889896393</v>
+        <v>0.1039613485336304</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.003606198588386178</v>
+        <v>0.0562894307076931</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>-3.973032289650291E-05</v>
+        <v>0.02624031715095043</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>2.719818803598173E-05</v>
+        <v>0.01790707744657993</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>2.719818803598173E-05</v>
+        <v>0.0007534518372267485</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>3.556818410288543E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>3.556818410288543E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>1.164050809165929E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2.182362004532479E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>1.844480357249267E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1.844480357249267E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.001774603617377579</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.03145812079310417</v>
+        <v>0.006661869119852781</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.08103588223457336</v>
+        <v>0.04713944345712662</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>0.1242182403802872</v>
+        <v>0.1006736531853676</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.1735223680734634</v>
+        <v>0.1666682064533234</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.20914226770401</v>
+        <v>0.2244225144386292</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>0.1961981058120728</v>
+        <v>0.2855311632156372</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.1508540213108063</v>
+        <v>0.2945144474506378</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>0.1289645731449127</v>
+        <v>0.2861334085464478</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>0.1296460330486298</v>
+        <v>0.2601406276226044</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.08925939351320267</v>
+        <v>0.211820974946022</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.03418204560875893</v>
+        <v>0.1605235785245895</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.002020519692450762</v>
+        <v>0.07903330028057098</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>3.556818410288543E-05</v>
+        <v>0.03327286243438721</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>1.164050809165929E-05</v>
+        <v>0.02059587650001049</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>1.164050809165929E-05</v>
+        <v>0.000825940805952996</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1.844480357249267E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1.844480357249267E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>1.844480357249267E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>1.844480357249267E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>1.544891347293742E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.0002762872900348157</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.01215674728155136</v>
+        <v>0.008119751699268818</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.02904575504362583</v>
+        <v>0.05182155594229698</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.0405745729804039</v>
+        <v>0.1113371625542641</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.04764419421553612</v>
+        <v>0.1742056459188461</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.05260362848639488</v>
+        <v>0.2037031203508377</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.0620214119553566</v>
+        <v>0.253135472536087</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.06284730136394501</v>
+        <v>0.2673791944980621</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.05891783908009529</v>
+        <v>0.2474181354045868</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.06090591475367546</v>
+        <v>0.2294892221689224</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.04204419255256653</v>
+        <v>0.1813108175992966</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.019391730427742</v>
+        <v>0.1272264569997787</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.0004905787645839155</v>
+        <v>0.06765437871217728</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>5.26579742654576E-06</v>
+        <v>0.02719463221728802</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>5.26579742654576E-06</v>
+        <v>0.018685232847929</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>5.26579742654576E-06</v>
+        <v>0.000825940805952996</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>5.26579742654576E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>3.146508333884412E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>3.146508333884412E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>6.064359467927716E-07</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>6.064359467927716E-07</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>6.064359467927716E-07</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>6.064359467927716E-07</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>6.064359467927716E-07</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.003710672724992037</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.04634121805429459</v>
+        <v>0.004379875492304564</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.1451025307178497</v>
+        <v>0.02500161342322826</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>0.2217845767736435</v>
+        <v>0.04879218339920044</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>0.2925904393196106</v>
+        <v>0.07676664739847183</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>0.2961595356464386</v>
+        <v>0.1109936311841011</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>0.2954031229019165</v>
+        <v>0.1312968134880066</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>0.2918896377086639</v>
+        <v>0.166289210319519</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>0.2625032663345337</v>
+        <v>0.171079084277153</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>0.1661596447229385</v>
+        <v>0.1605654358863831</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.09426494687795639</v>
+        <v>0.1303820163011551</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.03079444542527199</v>
+        <v>0.09272092580795288</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.001700251013971865</v>
+        <v>0.04884263873100281</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>8.261689799837768E-06</v>
+        <v>0.02847917564213276</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>8.261689799837768E-06</v>
+        <v>0.018685232847929</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>8.261689799837768E-06</v>
+        <v>0.001252333750016987</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>8.261689799837768E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>1.844480357249267E-05</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>1.844480357249267E-05</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>1.844480357249267E-05</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.001459287945181131</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.0227788332849741</v>
+        <v>0.005257971119135618</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.06800156086683273</v>
+        <v>0.03116628527641296</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>0.1286496967077255</v>
+        <v>0.06638123840093613</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>0.2069439142942429</v>
+        <v>0.1015600487589836</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>0.2785808742046356</v>
+        <v>0.1353562623262405</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>0.2920144498348236</v>
+        <v>0.1643002182245255</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>0.2886130511760712</v>
+        <v>0.1943094730377197</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>0.2584371268749237</v>
+        <v>0.2175248563289642</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>0.1864206492900848</v>
+        <v>0.2252464443445206</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.09428971260786057</v>
+        <v>0.1931773871183395</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.03312322497367859</v>
+        <v>0.1518619805574417</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>-0.0004365900531411171</v>
+        <v>-0.0002283291833009571</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>-4.896917289443081E-06</v>
+        <v>-0.0004001336346846074</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.07471635192632675</v>
+        <v>0.2950194776058197</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.01973054744303226</v>
+        <v>0.2984352111816406</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.0007658886606805027</v>
+        <v>0.298185259103775</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>-1.900375423247169E-06</v>
+        <v>0.2821953892707825</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>-1.900375423247169E-06</v>
+        <v>0.2758274972438812</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>-1.900375423247169E-06</v>
+        <v>0.2416412085294724</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>1.970329867617693E-05</v>
+        <v>0.1754064559936523</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>1.595632602402475E-05</v>
+        <v>0.08400850743055344</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>1.470966344641056E-05</v>
+        <v>0.02812807261943817</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>1.718875682854559E-05</v>
+        <v>0.007457293104380369</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>1.718875682854559E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>1.302296550420579E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.005849148612469435</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05124837905168533</v>
+        <v>8.014974810066633E-06</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.1249769553542137</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.1989066302776337</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.2678586840629578</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.2945945858955383</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.2984739243984222</v>
+        <v>7.103692041710019E-05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.2982148826122284</v>
+        <v>0.02010130323469639</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0.2850905358791351</v>
+        <v>0.07230936735868454</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.2739298343658447</v>
+        <v>0.1326110064983368</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.1935720592737198</v>
+        <v>0.192690297961235</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.097209632396698</v>
+        <v>0.2517043948173523</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.03845794126391411</v>
+        <v>0.2918905317783356</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.01938299275934696</v>
+        <v>0.2943156957626343</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.0007534518372267485</v>
+        <v>0.2923063635826111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>1.377242642774945E-05</v>
+        <v>0.2749648988246918</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>1.377242642774945E-05</v>
+        <v>0.2404739707708359</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>1.377242642774945E-05</v>
+        <v>0.1692428886890411</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>1.970329867617693E-05</v>
+        <v>0.1040706038475037</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>1.595632602402475E-05</v>
+        <v>0.06085502356290817</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>1.595632602402475E-05</v>
+        <v>0.03066743165254593</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>1.470966344641056E-05</v>
+        <v>0.006630204617977142</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>1.718875682854559E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>1.718875682854559E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.003941352479159832</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.03238337114453316</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.07299482077360153</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.1121309399604797</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.1640602201223373</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.2047764658927917</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.2462857812643051</v>
+        <v>4.471063584787771E-05</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.2508009672164917</v>
+        <v>0.02074628323316574</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.2270718663930893</v>
+        <v>0.07715190947055817</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0.1810984313488007</v>
+        <v>0.1543947011232376</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.1261863112449646</v>
+        <v>0.2069830149412155</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.065366230905056</v>
+        <v>0.2761014699935913</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.02549462765455246</v>
+        <v>0.298731803894043</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.01592969335615635</v>
+        <v>0.2988408803939819</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.0005057475646026433</v>
+        <v>0.2976890206336975</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>1.377242642774945E-05</v>
+        <v>0.2847408652305603</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>1.377242642774945E-05</v>
+        <v>0.2813657820224762</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>1.377242642774945E-05</v>
+        <v>0.2546264827251434</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>1.970329867617693E-05</v>
+        <v>0.1793482601642609</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>1.595632602402475E-05</v>
+        <v>0.09473353624343872</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>1.970329867617693E-05</v>
+        <v>0.03178969025611877</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>8.382450687349774E-06</v>
+        <v>0.01016825437545776</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>1.970329867617693E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.00236065685749054</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.02251927554607391</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.05010321736335754</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.08110208809375763</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.1113344505429268</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.1515399962663651</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.1917598396539688</v>
+        <v>4.471063584787771E-05</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.1973503679037094</v>
+        <v>0.02083908207714558</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>0.1870713233947754</v>
+        <v>0.07293277233839035</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>0.1629779785871506</v>
+        <v>0.1356301754713058</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.1039613485336304</v>
+        <v>0.1999696642160416</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.0562894307076931</v>
+        <v>0.2605515718460083</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.02624031715095043</v>
+        <v>0.2954476475715637</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.01790707744657993</v>
+        <v>0.2985461354255676</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.0007534518372267485</v>
+        <v>0.2985298633575439</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>1.377242642774945E-05</v>
+        <v>0.2874859571456909</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>1.377242642774945E-05</v>
+        <v>0.2823075950145721</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>1.377242642774945E-05</v>
+        <v>0.2145062536001205</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>8.382450687349774E-06</v>
+        <v>0.102829821407795</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>1.970329867617693E-05</v>
+        <v>0.05477042123675346</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>1.970329867617693E-05</v>
+        <v>0.0300011895596981</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>1.595632602402475E-05</v>
+        <v>0.006763414014130831</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.006661869119852781</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.04713944345712662</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.1006736531853676</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>0.1666682064533234</v>
+        <v>1.595632602402475E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>0.2244225144386292</v>
+        <v>1.470966344641056E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.2855311632156372</v>
+        <v>1.718875682854559E-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>0.2945144474506378</v>
+        <v>4.594307392835617E-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>0.2861334085464478</v>
+        <v>0.02147225104272366</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>0.2601406276226044</v>
+        <v>0.07349588721990585</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.211820974946022</v>
+        <v>0.1283694952726364</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>0.1605235785245895</v>
+        <v>0.1946886330842972</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.07903330028057098</v>
+        <v>0.2521714568138123</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.03327286243438721</v>
+        <v>0.2935664057731628</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.02059587650001049</v>
+        <v>0.2957230508327484</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.000825940805952996</v>
+        <v>0.2929316461086273</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>1.377242642774945E-05</v>
+        <v>0.283568263053894</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>1.377242642774945E-05</v>
+        <v>0.2740015685558319</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>1.377242642774945E-05</v>
+        <v>0.1950038820505142</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>8.382450687349774E-06</v>
+        <v>0.1231827735900879</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>8.382450687349774E-06</v>
+        <v>0.0634729415178299</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>8.382450687349774E-06</v>
+        <v>0.03258832916617393</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>8.382450687349774E-06</v>
+        <v>0.007460232358425856</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>8.382450687349774E-06</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.008119751699268818</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.05182155594229698</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.1113371625542641</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>0.1742056459188461</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>0.2037031203508377</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.253135472536087</v>
+        <v>1.970329867617693E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>0.2673791944980621</v>
+        <v>9.979123569792137E-05</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.2474181354045868</v>
+        <v>0.01519809477031231</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>0.2294892221689224</v>
+        <v>0.04785779863595963</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.1813108175992966</v>
+        <v>0.0809893012046814</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>0.1272264569997787</v>
+        <v>0.118298165500164</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.06765437871217728</v>
+        <v>0.1641519665718079</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.02719463221728802</v>
+        <v>0.1981658786535263</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.018685232847929</v>
+        <v>0.2260342985391617</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.000825940805952996</v>
+        <v>0.2343005537986755</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>1.377242642774945E-05</v>
+        <v>0.2184694856405258</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>1.377242642774945E-05</v>
+        <v>0.1802452951669693</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>1.377242642774945E-05</v>
+        <v>0.1200201213359833</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>8.382450687349774E-06</v>
+        <v>0.06788458675146103</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>8.382450687349774E-06</v>
+        <v>0.02800451032817364</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>1.970329867617693E-05</v>
+        <v>0.02680976130068302</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>1.595632602402475E-05</v>
+        <v>0.005185961723327637</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.004379875492304564</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.02500161342322826</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.04879218339920044</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.07676664739847183</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.1109936311841011</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>0.1312968134880066</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.166289210319519</v>
+        <v>0.0001302876917179674</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>0.171079084277153</v>
+        <v>0.01778550818562508</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>0.1605654358863831</v>
+        <v>0.05638070404529572</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.1303820163011551</v>
+        <v>0.1090206950902939</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.09272092580795288</v>
+        <v>0.1786273717880249</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.04884263873100281</v>
+        <v>0.25196373462677</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.02847917564213276</v>
+        <v>0.2918973565101624</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.018685232847929</v>
+        <v>0.294421374797821</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.001252333750016987</v>
+        <v>0.2918982207775116</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>1.377242642774945E-05</v>
+        <v>0.2816441655158997</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>1.377242642774945E-05</v>
+        <v>0.2747138440608978</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>1.377242642774945E-05</v>
+        <v>0.1940590590238571</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>8.382450687349774E-06</v>
+        <v>0.120675764977932</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>1.970329867617693E-05</v>
+        <v>0.05813387781381607</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>1.970329867617693E-05</v>
+        <v>0.03066743165254593</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>1.970329867617693E-05</v>
+        <v>0.00664234347641468</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>1.595632602402475E-05</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.005257971119135618</v>
+        <v>1.377242642774945E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.03116628527641296</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.06638123840093613</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0.1015600487589836</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0.1353562623262405</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>0.1643002182245255</v>
+        <v>8.382450687349774E-06</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.1943094730377197</v>
+        <v>0.0001302876917179674</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.2175248563289642</v>
+        <v>0.01964348368346691</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>0.2252464443445206</v>
+        <v>0.06478048861026764</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>0.1931773871183395</v>
+        <v>0.1242079958319664</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>0.1518619805574417</v>
+        <v>0.1917791962623596</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002283291833009571</v>
+        <v>-9.155709994956851E-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0004001336346846074</v>
+        <v>-0.000192865714780055</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.2950194776058197</v>
+        <v>0.1939067542552948</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.2984352111816406</v>
+        <v>0.2651357650756836</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.298185259103775</v>
+        <v>0.2928204536437988</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.2821953892707825</v>
+        <v>0.2982387542724609</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.2758274972438812</v>
+        <v>0.2967570424079895</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.2416412085294724</v>
+        <v>0.2806960046291351</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.1754064559936523</v>
+        <v>0.2776620388031006</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.08400850743055344</v>
+        <v>0.2468902170658112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.02812807261943817</v>
+        <v>0.1793200820684433</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.007457293104380369</v>
+        <v>0.1008638069033623</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>1.377242642774945E-05</v>
+        <v>0.03465954959392548</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>1.377242642774945E-05</v>
+        <v>0.01171257626265287</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>1.377242642774945E-05</v>
+        <v>0.0004201554984319955</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>8.014974810066633E-06</v>
+        <v>3.534049756126478E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>8.382450687349774E-06</v>
+        <v>3.534049756126478E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>8.382450687349774E-06</v>
+        <v>0.0001650261838221923</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>7.103692041710019E-05</v>
+        <v>7.880704288254492E-06</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.02010130323469639</v>
+        <v>7.880704288254492E-06</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.07230936735868454</v>
+        <v>0.0005342733347788453</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.1326110064983368</v>
+        <v>0.02731501683592796</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.192690297961235</v>
+        <v>0.0815441757440567</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.2517043948173523</v>
+        <v>0.1357929557561874</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>0.2918905317783356</v>
+        <v>0.1931567490100861</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>0.2943156957626343</v>
+        <v>0.2648577690124512</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>0.2923063635826111</v>
+        <v>0.2926380932331085</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>0.2749648988246918</v>
+        <v>0.2976556122303009</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>0.2404739707708359</v>
+        <v>0.2952901422977448</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>0.1692428886890411</v>
+        <v>0.2795788645744324</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0.1040706038475037</v>
+        <v>0.2769598066806793</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.06085502356290817</v>
+        <v>0.2515267431735992</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.03066743165254593</v>
+        <v>0.1882255077362061</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.006630204617977142</v>
+        <v>0.1023990958929062</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>1.377242642774945E-05</v>
+        <v>0.0362214483320713</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>1.377242642774945E-05</v>
+        <v>0.01861434429883957</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>1.377242642774945E-05</v>
+        <v>0.0004694602976087481</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>8.382450687349774E-06</v>
+        <v>0.0004201554984319955</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>8.382450687349774E-06</v>
+        <v>3.806105814874172E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>8.382450687349774E-06</v>
+        <v>0.0003405036113690585</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.970329867617693E-05</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>1.595632602402475E-05</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>4.471063584787771E-05</v>
+        <v>0.0006643338711000979</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.02074628323316574</v>
+        <v>0.0003511795948725194</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.07715190947055817</v>
+        <v>0.0005839138175360858</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>0.1543947011232376</v>
+        <v>0.01950865425169468</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>0.2069830149412155</v>
+        <v>0.07008041441440582</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.2761014699935913</v>
+        <v>0.1284347921609879</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.298731803894043</v>
+        <v>0.1865234225988388</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.2988408803939819</v>
+        <v>0.2523134648799896</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>0.2976890206336975</v>
+        <v>0.290146142244339</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>0.2847408652305603</v>
+        <v>0.2953727841377258</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0.2813657820224762</v>
+        <v>0.2942429184913635</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>0.2546264827251434</v>
+        <v>0.2789232134819031</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>0.1793482601642609</v>
+        <v>0.2732826769351959</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>0.09473353624343872</v>
+        <v>0.2370744645595551</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.03178969025611877</v>
+        <v>0.1706205308437347</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.01016825437545776</v>
+        <v>0.09486647695302963</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>1.377242642774945E-05</v>
+        <v>0.03416768461465836</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>1.377242642774945E-05</v>
+        <v>0.0137035483494401</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>1.377242642774945E-05</v>
+        <v>5.800028156954795E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>8.382450687349774E-06</v>
+        <v>2.162272903660778E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>8.382450687349774E-06</v>
+        <v>2.162272903660778E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1.970329867617693E-05</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>1.970329867617693E-05</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>1.595632602402475E-05</v>
+        <v>7.880704288254492E-06</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>4.471063584787771E-05</v>
+        <v>7.880704288254492E-06</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.02083908207714558</v>
+        <v>7.880704288254492E-06</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.07293277233839035</v>
+        <v>0.0003881911688949913</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>0.1356301754713058</v>
+        <v>0.02448853477835655</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>0.1999696642160416</v>
+        <v>0.07838620245456696</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>0.2605515718460083</v>
+        <v>0.1357929557561874</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.2954476475715637</v>
+        <v>0.195639505982399</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>0.2985461354255676</v>
+        <v>0.2602813839912415</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>0.2985298633575439</v>
+        <v>0.2919379770755768</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>0.2874859571456909</v>
+        <v>0.2960225641727448</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>0.2823075950145721</v>
+        <v>0.2952901422977448</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>0.2145062536001205</v>
+        <v>0.2790689766407013</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>0.102829821407795</v>
+        <v>0.275947242975235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.05477042123675346</v>
+        <v>0.239963173866272</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.0300011895596981</v>
+        <v>0.1743145436048508</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.006763414014130831</v>
+        <v>0.09438033401966095</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>1.377242642774945E-05</v>
+        <v>0.03466767445206642</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>1.377242642774945E-05</v>
+        <v>0.01556080020964146</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>1.377242642774945E-05</v>
+        <v>0.001451947842724621</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>8.382450687349774E-06</v>
+        <v>0.0004694602976087481</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>1.970329867617693E-05</v>
+        <v>0.0004201554984319955</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1.595632602402475E-05</v>
+        <v>0.001051124883815646</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1.470966344641056E-05</v>
+        <v>0.0003405036113690585</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>1.718875682854559E-05</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>4.594307392835617E-05</v>
+        <v>0.0006643338711000979</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.02147225104272366</v>
+        <v>0.0003511795948725194</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.07349588721990585</v>
+        <v>0.0007051691063679755</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.1283694952726364</v>
+        <v>0.02480876073241234</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.1946886330842972</v>
+        <v>0.07933644950389862</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.2521714568138123</v>
+        <v>0.1394956856966019</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>0.2935664057731628</v>
+        <v>0.1881684362888336</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>0.2957230508327484</v>
+        <v>0.258776068687439</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>0.2929316461086273</v>
+        <v>0.2895787060260773</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>0.283568263053894</v>
+        <v>0.2953727841377258</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>0.2740015685558319</v>
+        <v>0.2952901422977448</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>0.1950038820505142</v>
+        <v>0.2791079580783844</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.1231827735900879</v>
+        <v>0.2752349376678467</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.0634729415178299</v>
+        <v>0.220754861831665</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.03258832916617393</v>
+        <v>0.1327057927846909</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.007460232358425856</v>
+        <v>0.05267192423343658</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>1.377242642774945E-05</v>
+        <v>0.03752611577510834</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>1.377242642774945E-05</v>
+        <v>0.01272722613066435</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>1.377242642774945E-05</v>
+        <v>0.0004694602976087481</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>8.382450687349774E-06</v>
+        <v>0.0004201554984319955</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>8.382450687349774E-06</v>
+        <v>3.806105814874172E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>8.382450687349774E-06</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>1.970329867617693E-05</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>1.970329867617693E-05</v>
+        <v>0.0001650261838221923</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>9.979123569792137E-05</v>
+        <v>0.0003511795948725194</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.01519809477031231</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.04785779863595963</v>
+        <v>0.0003969798272009939</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.0809893012046814</v>
+        <v>0.02203181013464928</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>0.118298165500164</v>
+        <v>0.07949896156787872</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.1641519665718079</v>
+        <v>0.1309105157852173</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.1981658786535263</v>
+        <v>0.1888973414897919</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>0.2260342985391617</v>
+        <v>0.2565367519855499</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>0.2343005537986755</v>
+        <v>0.290146142244339</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0.2184694856405258</v>
+        <v>0.2954815030097961</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>0.1802452951669693</v>
+        <v>0.2877399027347565</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>0.1200201213359833</v>
+        <v>0.2514757812023163</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.06788458675146103</v>
+        <v>0.2173555791378021</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.02800451032817364</v>
+        <v>0.1724792718887329</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.02680976130068302</v>
+        <v>0.1010222882032394</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.005185961723327637</v>
+        <v>0.05021115392446518</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>1.377242642774945E-05</v>
+        <v>0.03669997304677963</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>1.377242642774945E-05</v>
+        <v>0.01038214191794395</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>1.377242642774945E-05</v>
+        <v>2.162272903660778E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>8.382450687349774E-06</v>
+        <v>2.162272903660778E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>8.382450687349774E-06</v>
+        <v>2.162272903660778E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.0001302876917179674</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.01778550818562508</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.05638070404529572</v>
+        <v>0.0003881911688949913</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.1090206950902939</v>
+        <v>0.0223697442561388</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>0.1786273717880249</v>
+        <v>0.07133568823337555</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>0.25196373462677</v>
+        <v>0.129667267203331</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.2918973565101624</v>
+        <v>0.1894707381725311</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>0.294421374797821</v>
+        <v>0.257597416639328</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>0.2918982207775116</v>
+        <v>0.2913128733634949</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>0.2816441655158997</v>
+        <v>0.2960225641727448</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>0.2747138440608978</v>
+        <v>0.2952901422977448</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>0.1940590590238571</v>
+        <v>0.2790689766407013</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.120675764977932</v>
+        <v>0.275947242975235</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.05813387781381607</v>
+        <v>0.2489212453365326</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.03066743165254593</v>
+        <v>0.1746139079332352</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.00664234347641468</v>
+        <v>0.09420246630907059</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>1.377242642774945E-05</v>
+        <v>0.03466492518782616</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>1.377242642774945E-05</v>
+        <v>0.01067837327718735</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>1.377242642774945E-05</v>
+        <v>3.806105814874172E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>8.382450687349774E-06</v>
+        <v>3.806105814874172E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>8.382450687349774E-06</v>
+        <v>3.534049756126478E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>8.382450687349774E-06</v>
+        <v>0.0004781804163940251</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>8.382450687349774E-06</v>
+        <v>0.0001650261838221923</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>8.382450687349774E-06</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.0001302876917179674</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.01964348368346691</v>
+        <v>4.299043939681724E-05</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.06478048861026764</v>
+        <v>0.0002757245965767652</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.1242079958319664</v>
+        <v>0.0223697442561388</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>0.1917791962623596</v>
+        <v>0.07478997856378555</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>-9.155709994956851E-05</v>
+        <v>-0.000387775304261595</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>-0.000192865714780055</v>
+        <v>-0.0004261875001247972</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.1939067542552948</v>
+        <v>0.151727169752121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.2651357650756836</v>
+        <v>0.2802904844284058</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.2928204536437988</v>
+        <v>0.2682499289512634</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.2982387542724609</v>
+        <v>0.2039949744939804</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.2967570424079895</v>
+        <v>0.113542266190052</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.2806960046291351</v>
+        <v>0.05346594750881195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2776620388031006</v>
+        <v>0.03152231127023697</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.2468902170658112</v>
+        <v>0.01885408908128738</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.1793200820684433</v>
+        <v>0.003372789360582829</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.1008638069033623</v>
+        <v>5.110434358357452E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.03465954959392548</v>
+        <v>5.27523152413778E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.01171257626265287</v>
+        <v>2.248390956083313E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0004201554984319955</v>
+        <v>0.0004805501375813037</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3.534049756126478E-05</v>
+        <v>0.0001821455953177065</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>3.534049756126478E-05</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0001650261838221923</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>4.299043939681724E-05</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>4.299043939681724E-05</v>
+        <v>0.0001026548197842203</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>7.880704288254492E-06</v>
+        <v>0.004344237502664328</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>7.880704288254492E-06</v>
+        <v>0.0388992503285408</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.0005342733347788453</v>
+        <v>0.08883461356163025</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.02731501683592796</v>
+        <v>0.1520536988973618</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.0815441757440567</v>
+        <v>0.2102015465497971</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.1357929557561874</v>
+        <v>0.2434088736772537</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.1931567490100861</v>
+        <v>0.2638500034809113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.2648577690124512</v>
+        <v>0.2594964802265167</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.2926380932331085</v>
+        <v>0.2360223829746246</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.2976556122303009</v>
+        <v>0.2184925377368927</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.2952901422977448</v>
+        <v>0.1542102247476578</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.2795788645744324</v>
+        <v>0.07242589443922043</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.2769598066806793</v>
+        <v>0.03053934499621391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.2515267431735992</v>
+        <v>0.01834328845143318</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.1882255077362061</v>
+        <v>0.002465191297233105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.1023990958929062</v>
+        <v>5.110434358357452E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.0362214483320713</v>
+        <v>2.248390956083313E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.01861434429883957</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0004694602976087481</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.0004201554984319955</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>3.806105814874172E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0003405036113690585</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.0004781804163940251</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.0004781804163940251</v>
+        <v>0.0001026548197842203</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.0006643338711000979</v>
+        <v>0.002886440139263868</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.0003511795948725194</v>
+        <v>0.03076953254640102</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.0005839138175360858</v>
+        <v>0.06543592363595963</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.01950865425169468</v>
+        <v>0.1017976477742195</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.07008041441440582</v>
+        <v>0.1481529474258423</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.1284347921609879</v>
+        <v>0.1679342985153198</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.1865234225988388</v>
+        <v>0.1919243037700653</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.2523134648799896</v>
+        <v>0.2183174937963486</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.290146142244339</v>
+        <v>0.2321685254573822</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.2953727841377258</v>
+        <v>0.2062764465808868</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.2942429184913635</v>
+        <v>0.1649111062288284</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.2789232134819031</v>
+        <v>0.1046707183122635</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.2732826769351959</v>
+        <v>0.05337845534086227</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.2370744645595551</v>
+        <v>0.02639509551227093</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.1706205308437347</v>
+        <v>0.003102724207565188</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.09486647695302963</v>
+        <v>5.27523152413778E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.03416768461465836</v>
+        <v>2.248390956083313E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.0137035483494401</v>
+        <v>2.248390956083313E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>5.800028156954795E-05</v>
+        <v>0.0004805501375813037</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>2.162272903660778E-05</v>
+        <v>0.0001821455953177065</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2.162272903660778E-05</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>4.299043939681724E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>4.299043939681724E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>7.880704288254492E-06</v>
+        <v>0.0001026548197842203</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>7.880704288254492E-06</v>
+        <v>0.005222334060817957</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>7.880704288254492E-06</v>
+        <v>0.0458264946937561</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.0003881911688949913</v>
+        <v>0.1080189421772957</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.02448853477835655</v>
+        <v>0.1744653433561325</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.07838620245456696</v>
+        <v>0.2432441115379333</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.1357929557561874</v>
+        <v>0.2903600633144379</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.195639505982399</v>
+        <v>0.284088671207428</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.2602813839912415</v>
+        <v>0.2784550189971924</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.2919379770755768</v>
+        <v>0.2408725917339325</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.2960225641727448</v>
+        <v>0.1927918344736099</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.2952901422977448</v>
+        <v>0.1331021189689636</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.2790689766407013</v>
+        <v>0.05612657591700554</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.275947242975235</v>
+        <v>0.03272558376193047</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.239963173866272</v>
+        <v>0.01276153419166803</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.1743145436048508</v>
+        <v>0.00133233517408371</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.09438033401966095</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.03466767445206642</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.01556080020964146</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.001451947842724621</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.0004694602976087481</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.0004201554984319955</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.001051124883815646</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0003405036113690585</v>
+        <v>3.298465890111402E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0004781804163940251</v>
+        <v>8.468575833830982E-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.0006643338711000979</v>
+        <v>0.002968157641589642</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.0003511795948725194</v>
+        <v>0.0324823297560215</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.0007051691063679755</v>
+        <v>0.08085937798023224</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.02480876073241234</v>
+        <v>0.1448285281658173</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.07933644950389862</v>
+        <v>0.2118979096412659</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.1394956856966019</v>
+        <v>0.2773350179195404</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.1881684362888336</v>
+        <v>0.2890662252902985</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.258776068687439</v>
+        <v>0.2913272976875305</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.2895787060260773</v>
+        <v>0.2654786109924316</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.2953727841377258</v>
+        <v>0.2617799341678619</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.2952901422977448</v>
+        <v>0.2335245311260223</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.2791079580783844</v>
+        <v>0.1502027064561844</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.2752349376678467</v>
+        <v>0.06533376127481461</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.220754861831665</v>
+        <v>0.03034432046115398</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.1327057927846909</v>
+        <v>0.003821672406047583</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.05267192423343658</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.03752611577510834</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.01272722613066435</v>
+        <v>2.351584407733753E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0004694602976087481</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.0004201554984319955</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>3.806105814874172E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.0004781804163940251</v>
+        <v>3.298465890111402E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.0004781804163940251</v>
+        <v>3.298465890111402E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.0001650261838221923</v>
+        <v>8.468575833830982E-05</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.0003511795948725194</v>
+        <v>0.005430225282907486</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>4.299043939681724E-05</v>
+        <v>0.0463237389922142</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.0003969798272009939</v>
+        <v>0.1084243580698967</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.02203181013464928</v>
+        <v>0.1811847686767578</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.07949896156787872</v>
+        <v>0.2506984174251556</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.1309105157852173</v>
+        <v>0.2914760410785675</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.1888973414897919</v>
+        <v>0.2967002689838409</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.2565367519855499</v>
+        <v>0.2943264544010162</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.290146142244339</v>
+        <v>0.2738468945026398</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.2954815030097961</v>
+        <v>0.2520392835140228</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.2877399027347565</v>
+        <v>0.2003922462463379</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.2514757812023163</v>
+        <v>0.1319833248853683</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.2173555791378021</v>
+        <v>0.05321723222732544</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.1724792718887329</v>
+        <v>0.02523918077349663</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.1010222882032394</v>
+        <v>0.001299123396165669</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.05021115392446518</v>
+        <v>5.110434358357452E-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.03669997304677963</v>
+        <v>5.27523152413778E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.01038214191794395</v>
+        <v>2.248390956083313E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>2.162272903660778E-05</v>
+        <v>0.0001821455953177065</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>2.162272903660778E-05</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>2.162272903660778E-05</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>4.299043939681724E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>4.299043939681724E-05</v>
+        <v>2.500010486983228E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>4.299043939681724E-05</v>
+        <v>0.0001026548197842203</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>4.299043939681724E-05</v>
+        <v>0.003475915174931288</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>4.299043939681724E-05</v>
+        <v>0.04122301191091537</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.0003881911688949913</v>
+        <v>0.1050209477543831</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.0223697442561388</v>
+        <v>0.1690983027219772</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.07133568823337555</v>
+        <v>0.2453133016824722</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.129667267203331</v>
+        <v>0.2906443178653717</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.1894707381725311</v>
+        <v>0.2943600118160248</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.257597416639328</v>
+        <v>0.2939052283763885</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.2913128733634949</v>
+        <v>0.2791086137294769</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.2960225641727448</v>
+        <v>0.2709964215755463</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.2952901422977448</v>
+        <v>0.2343015521764755</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.2790689766407013</v>
+        <v>0.1623279899358749</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.275947242975235</v>
+        <v>0.07847942411899567</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.2489212453365326</v>
+        <v>0.03482918068766594</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.1746139079332352</v>
+        <v>0.004724826663732529</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.09420246630907059</v>
+        <v>0.000437343172961846</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.03466492518782616</v>
+        <v>-0.000272862205747515</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.01067837327718735</v>
+        <v>5.110434358357452E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>3.806105814874172E-05</v>
+        <v>0.0004774286935571581</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>3.806105814874172E-05</v>
+        <v>0.0004805501375813037</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>3.534049756126478E-05</v>
+        <v>0.0001821455953177065</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.0004781804163940251</v>
+        <v>0.0003682989336084574</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.0001650261838221923</v>
+        <v>6.010984725435264E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>4.299043939681724E-05</v>
+        <v>0.0001114434635383077</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>4.299043939681724E-05</v>
+        <v>0.003568330314010382</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>4.299043939681724E-05</v>
+        <v>0.0402703583240509</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.0002757245965767652</v>
+        <v>0.1046060770750046</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.0223697442561388</v>
+        <v>0.1656755954027176</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.07478997856378555</v>
+        <v>0.2440916895866394</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_F24.xlsx
+++ b/Transavia/Production/Results/Results_daily_F24.xlsx
@@ -377,164 +377,164 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>-0.000387775304261595</v>
+        <v>-0.0003321193216834217</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-0.0004261875001247972</v>
+        <v>-0.0003657463530544192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.151727169752121</v>
+        <v>-0.0007464191876351833</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.2802904844284058</v>
+        <v>0.2762109339237213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.2682499289512634</v>
+        <v>0.2798411250114441</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.2039949744939804</v>
+        <v>0.2779057323932648</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.113542266190052</v>
+        <v>0.2708118259906769</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.05346594750881195</v>
+        <v>0.2378869950771332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.03152231127023697</v>
+        <v>0.2145213782787323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.01885408908128738</v>
+        <v>0.1501286774873734</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.003372789360582829</v>
+        <v>0.07223735004663467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>5.110434358357452E-05</v>
+        <v>0.0384276919066906</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>5.27523152413778E-05</v>
+        <v>0.003981048241257668</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2.248390956083313E-05</v>
+        <v>0.0004774286935571581</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0.0004805501375813037</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0.0001821455953177065</v>
@@ -553,1685 +553,1685 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>6.010984725435264E-05</v>
+        <v>0.0003682989336084574</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>6.010984725435264E-05</v>
+        <v>0.0001114434635383077</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>6.010984725435264E-05</v>
+        <v>0.0001941010123118758</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0001026548197842203</v>
+        <v>8.97601421456784E-06</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.004344237502664328</v>
+        <v>-6.443601887440309E-05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.0388992503285408</v>
+        <v>-1.38369359774515E-05</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.08883461356163025</v>
+        <v>0.005224587395787239</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0.1520536988973618</v>
+        <v>0.04569464549422264</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.2102015465497971</v>
+        <v>0.1056619808077812</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0.2434088736772537</v>
+        <v>0.1764424592256546</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.2638500034809113</v>
+        <v>0.2381362915039062</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.2594964802265167</v>
+        <v>0.2728224396705627</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0.2360223829746246</v>
+        <v>0.2786204516887665</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0.2184925377368927</v>
+        <v>0.2770066857337952</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0.1542102247476578</v>
+        <v>0.2727044224739075</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.07242589443922043</v>
+        <v>0.247059166431427</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.03053934499621391</v>
+        <v>0.1903581619262695</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.01834328845143318</v>
+        <v>0.1140354499220848</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.002465191297233105</v>
+        <v>0.05334489420056343</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>5.110434358357452E-05</v>
+        <v>0.03043803758919239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2.248390956083313E-05</v>
+        <v>0.001372139086015522</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>2.351584407733753E-05</v>
+        <v>0.0007774955593049526</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>2.500010486983228E-05</v>
+        <v>0.0003990294935647398</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2.500010486983228E-05</v>
+        <v>0.0003990294935647398</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2.500010486983228E-05</v>
+        <v>0.0006635821191594005</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>2.500010486983228E-05</v>
+        <v>0.0007149157463572919</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>2.500010486983228E-05</v>
+        <v>0.000500494905281812</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0001026548197842203</v>
+        <v>0.0001766696368576959</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.002886440139263868</v>
+        <v>3.59683035640046E-05</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.03076953254640102</v>
+        <v>-1.343980147794355E-05</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.06543592363595963</v>
+        <v>0.001812146627344191</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.1017976477742195</v>
+        <v>0.0245425496250391</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.1481529474258423</v>
+        <v>0.06552932411432266</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.1679342985153198</v>
+        <v>0.107958972454071</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.1919243037700653</v>
+        <v>0.1600854098796844</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0.2183174937963486</v>
+        <v>0.1936289817094803</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.2321685254573822</v>
+        <v>0.2333725392818451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.2062764465808868</v>
+        <v>0.2324849367141724</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.1649111062288284</v>
+        <v>0.2056003957986832</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.1046707183122635</v>
+        <v>0.1713811159133911</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.05337845534086227</v>
+        <v>0.148577556014061</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.02639509551227093</v>
+        <v>0.08164297044277191</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.003102724207565188</v>
+        <v>0.03804798051714897</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>5.27523152413778E-05</v>
+        <v>0.02515069767832756</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>2.248390956083313E-05</v>
+        <v>0.0005838288343511522</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>2.248390956083313E-05</v>
+        <v>0.0003726674476638436</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.0004805501375813037</v>
+        <v>0.0003990294935647398</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.0001821455953177065</v>
+        <v>0.0004774286935571581</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>6.010984725435264E-05</v>
+        <v>0.000666703621391207</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2.500010486983228E-05</v>
+        <v>0.0004196325608063489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2.500010486983228E-05</v>
+        <v>0.0001941010123118758</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.0001026548197842203</v>
+        <v>8.97601421456784E-06</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.005222334060817957</v>
+        <v>-6.443601887440309E-05</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.0458264946937561</v>
+        <v>-1.38369359774515E-05</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.1080189421772957</v>
+        <v>0.002888694172725081</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>0.1744653433561325</v>
+        <v>0.04029815271496773</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>0.2432441115379333</v>
+        <v>0.1007097586989403</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>0.2903600633144379</v>
+        <v>0.1657916754484177</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>0.284088671207428</v>
+        <v>0.2399128675460815</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0.2784550189971924</v>
+        <v>0.2729041576385498</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.2408725917339325</v>
+        <v>0.2785646021366119</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0.1927918344736099</v>
+        <v>0.2759100198745728</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0.1331021189689636</v>
+        <v>0.2712659239768982</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0.05612657591700554</v>
+        <v>0.2590949237346649</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.03272558376193047</v>
+        <v>0.2155501693487167</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.01276153419166803</v>
+        <v>0.1432309746742249</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.00133233517408371</v>
+        <v>0.05650968477129936</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>2.351584407733753E-05</v>
+        <v>0.03043803758919239</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>2.351584407733753E-05</v>
+        <v>0.0005838288343511522</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>2.351584407733753E-05</v>
+        <v>0.0003990294935647398</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>2.500010486983228E-05</v>
+        <v>0.0004774286935571581</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>2.500010486983228E-05</v>
+        <v>0.0004805501375813037</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>2.500010486983228E-05</v>
+        <v>0.000666703621391207</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>2.500010486983228E-05</v>
+        <v>0.0004196325608063489</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>3.298465890111402E-05</v>
+        <v>0.0002020903048105538</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>8.468575833830982E-05</v>
+        <v>0.0001013910514302552</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.002968157641589642</v>
+        <v>2.797902197926305E-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.0324823297560215</v>
+        <v>-1.38369359774515E-05</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.08085937798023224</v>
+        <v>0.002888694172725081</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.1448285281658173</v>
+        <v>0.04004114866256714</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>0.2118979096412659</v>
+        <v>0.1003915891051292</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>0.2773350179195404</v>
+        <v>0.1632207930088043</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>0.2890662252902985</v>
+        <v>0.2400335073471069</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>0.2913272976875305</v>
+        <v>0.272428035736084</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>0.2654786109924316</v>
+        <v>0.2771458625793457</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>0.2617799341678619</v>
+        <v>0.2700593173503876</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0.2335245311260223</v>
+        <v>0.2323791235685349</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>0.1502027064561844</v>
+        <v>0.1985368132591248</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.06533376127481461</v>
+        <v>0.1571319401264191</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.03034432046115398</v>
+        <v>0.107899934053421</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.003821672406047583</v>
+        <v>0.04865725338459015</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>2.351584407733753E-05</v>
+        <v>0.02515069767832756</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>2.351584407733753E-05</v>
+        <v>0.0005296441377140582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>2.351584407733753E-05</v>
+        <v>-0.0006952921976335347</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>2.500010486983228E-05</v>
+        <v>0.0007774955593049526</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>2.500010486983228E-05</v>
+        <v>0.0003726674476638436</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>2.500010486983228E-05</v>
+        <v>0.0005851829773746431</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>3.298465890111402E-05</v>
+        <v>0.0006365166045725346</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>3.298465890111402E-05</v>
+        <v>0.0003991739358752966</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>8.468575833830982E-05</v>
+        <v>0.0001766696368576959</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.005430225282907486</v>
+        <v>0.0001766696368576959</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.0463237389922142</v>
+        <v>-1.343980147794355E-05</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.1084243580698967</v>
+        <v>0.003224454121664166</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>0.1811847686767578</v>
+        <v>0.04584690928459167</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>0.2506984174251556</v>
+        <v>0.100279688835144</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>0.2914760410785675</v>
+        <v>0.1686867922544479</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>0.2967002689838409</v>
+        <v>0.2364465296268463</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0.2943264544010162</v>
+        <v>0.2722803354263306</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>0.2738468945026398</v>
+        <v>0.278037965297699</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0.2520392835140228</v>
+        <v>0.2770066857337952</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>0.2003922462463379</v>
+        <v>0.2769620418548584</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>0.1319833248853683</v>
+        <v>0.2712253332138062</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.05321723222732544</v>
+        <v>0.2347245514392853</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.02523918077349663</v>
+        <v>0.1573753207921982</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.001299123396165669</v>
+        <v>0.07177805155515671</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>5.110434358357452E-05</v>
+        <v>0.03509922325611115</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>5.27523152413778E-05</v>
+        <v>0.001142164459452033</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>2.248390956083313E-05</v>
+        <v>-0.000572725897654891</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>0.0001821455953177065</v>
+        <v>-0.0005684039206244051</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>6.010984725435264E-05</v>
+        <v>-0.0006952921976335347</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>6.010984725435264E-05</v>
+        <v>0.0009636490722186863</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>2.500010486983228E-05</v>
+        <v>0.0006101545877754688</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>2.500010486983228E-05</v>
+        <v>0.0003207747940905392</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.0001026548197842203</v>
+        <v>0.0001831919944379479</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.003475915174931288</v>
+        <v>0.0002529725607018918</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.04122301191091537</v>
+        <v>0.0001272615190828219</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.1050209477543831</v>
+        <v>0.00263497862033546</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>0.1690983027219772</v>
+        <v>0.04022578150033951</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>0.2453133016824722</v>
+        <v>0.09555322676897049</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>0.2906443178653717</v>
+        <v>0.1665620505809784</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>0.2943600118160248</v>
+        <v>0.2396825104951859</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0.2939052283763885</v>
+        <v>0.2713837623596191</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>0.2791086137294769</v>
+        <v>0.278037965297699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>0.2709964215755463</v>
+        <v>0.2770066857337952</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>0.2343015521764755</v>
+        <v>0.2767797112464905</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>0.1623279899358749</v>
+        <v>0.2701810598373413</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.07847942411899567</v>
+        <v>0.2339057922363281</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.03482918068766594</v>
+        <v>0.1573753207921982</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.004724826663732529</v>
+        <v>0.07177805155515671</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>0.000437343172961846</v>
+        <v>0.03197436034679413</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>-0.000272862205747515</v>
+        <v>0.0004651936760637909</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>5.110434358357452E-05</v>
+        <v>-0.000572725897654891</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>0.0004774286935571581</v>
+        <v>-0.0005684039206244051</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0004805501375813037</v>
+        <v>-0.0006952921976335347</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>0.0001821455953177065</v>
+        <v>0.0009636490722186863</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.0003682989336084574</v>
+        <v>0.0006101545877754688</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>6.010984725435264E-05</v>
+        <v>0.0003207747940905392</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.0001114434635383077</v>
+        <v>0.0001831919944379479</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.003568330314010382</v>
+        <v>0.0001766696368576959</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.0402703583240509</v>
+        <v>-1.343980147794355E-05</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>0.1046060770750046</v>
+        <v>0.001958006527274847</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>0.1656755954027176</v>
+        <v>0.03651715442538261</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>0.2440916895866394</v>
+        <v>0.0955531969666481</v>
       </c>
     </row>
   </sheetData>
